--- a/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
+++ b/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\RTMF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\RTMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FB5531-2677-47B7-9AFB-26A3AFDC9591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2250" windowWidth="23595" windowHeight="14160"/>
+    <workbookView xWindow="21090" yWindow="660" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="RTMF-passengers" sheetId="2" r:id="rId2"/>
-    <sheet name="RTMF-freight" sheetId="3" r:id="rId3"/>
+    <sheet name="RTMF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>RTMF Recipient Transportation Mode Fractions</t>
   </si>
@@ -142,11 +142,44 @@
   <si>
     <t>the following mode shifts:</t>
   </si>
+  <si>
+    <t>passenger LDVs</t>
+  </si>
+  <si>
+    <t>passenger HDVs</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>passenger ships</t>
+  </si>
+  <si>
+    <t>passenger motorbikes</t>
+  </si>
+  <si>
+    <t>freight LDVs</t>
+  </si>
+  <si>
+    <t>freight HDVs</t>
+  </si>
+  <si>
+    <t>freight aircraft</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>freight ships</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,22 +561,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.73046875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,80 +584,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -633,7 +666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -642,7 +675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
@@ -658,22 +691,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -699,9 +732,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -727,9 +760,9 @@
         <v>0.33999999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -755,9 +788,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -783,9 +816,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -811,9 +844,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -839,9 +872,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -867,240 +900,173 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
       <c r="H8" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6">
-        <f>1-SUM(B2:G2)</f>
+      <c r="I8" s="6">
+        <f>1-SUM(B8:G8)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I7" si="0">1-SUM(B3:G3)</f>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6">
+        <f>1-SUM(B9:G9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6">
-        <f t="shared" si="0"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="6">
+        <f>1-SUM(B10:G10)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6">
-        <f t="shared" si="0"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="6">
+        <f>1-SUM(B11:G11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6">
-        <f t="shared" si="0"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="6">
+        <f>1-SUM(B12:G12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6">
-        <f t="shared" si="0"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="6">
+        <f>1-SUM(B13:G13)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
+++ b/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\RTMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FB5531-2677-47B7-9AFB-26A3AFDC9591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0238BE5-1C16-410D-BC1D-2991C167FC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21090" yWindow="660" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10875" yWindow="195" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>RTMF Recipient Transportation Mode Fractions</t>
   </si>
@@ -44,24 +44,6 @@
   </si>
   <si>
     <t>Unit: dimensionless (%)</t>
-  </si>
-  <si>
-    <t>LDVs</t>
-  </si>
-  <si>
-    <t>HDVs</t>
-  </si>
-  <si>
-    <t>aircraft</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>ships</t>
-  </si>
-  <si>
-    <t>motorbikes</t>
   </si>
   <si>
     <t>Notes</t>
@@ -240,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -248,6 +230,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,67 +566,67 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,39 +634,39 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -695,46 +680,64 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="2" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -754,15 +757,33 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6">
-        <f>1-SUM(B2:G2)</f>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="6">
+        <f>1-SUM(B2:M2)</f>
         <v>0.33999999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -782,15 +803,33 @@
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I7" si="0">1-SUM(B3:G3)</f>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="6">
+        <f t="shared" ref="O3:O13" si="0">1-SUM(B3:M3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -810,15 +849,33 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -838,15 +895,33 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -866,15 +941,33 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -894,15 +987,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -922,15 +1033,33 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6">
-        <f>1-SUM(B8:G8)</f>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -950,15 +1079,33 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6">
-        <f>1-SUM(B9:G9)</f>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -978,15 +1125,33 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6">
-        <f>1-SUM(B10:G10)</f>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -1006,15 +1171,33 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6">
-        <f>1-SUM(B11:G11)</f>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -1034,15 +1217,33 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6">
-        <f>1-SUM(B12:G12)</f>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -1062,9 +1263,27 @@
       <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6">
-        <f>1-SUM(B13:G13)</f>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
